--- a/branches/update-uml/ValueSet-vs-artregimen-lines.xlsx
+++ b/branches/update-uml/ValueSet-vs-artregimen-lines.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:36:35+00:00</t>
+    <t>2023-03-06T13:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-uml/ValueSet-vs-artregimen-lines.xlsx
+++ b/branches/update-uml/ValueSet-vs-artregimen-lines.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:46:45+00:00</t>
+    <t>2023-03-06T13:48:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
